--- a/src/test/resources/data/DataPruebas.xlsx
+++ b/src/test/resources/data/DataPruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteban.caceres\Downloads\trabajoPOM_Caceres\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF91E8AF-CC9B-4AD3-9331-028950E6E78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D069FD9-3DF0-4BBF-ADEB-4C72DDB9D0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>TituloCPS</t>
   </si>
@@ -100,9 +100,6 @@
     <t>secret_sauce</t>
   </si>
   <si>
-    <t>inventory</t>
-  </si>
-  <si>
     <t>CP002_lockedLogin</t>
   </si>
   <si>
@@ -127,9 +124,6 @@
     <t>CP004_comprarArticulos</t>
   </si>
   <si>
-    <t>Exitoso</t>
-  </si>
-  <si>
     <t>CP005_remueveArticulos</t>
   </si>
   <si>
@@ -145,26 +139,20 @@
     <t>Caceres</t>
   </si>
   <si>
-    <t>SauceCard #31337</t>
-  </si>
-  <si>
-    <t>79.98</t>
-  </si>
-  <si>
-    <t>6.40</t>
-  </si>
-  <si>
-    <t>86.38</t>
-  </si>
-  <si>
     <t>Thank you for your order!</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/inventory.html</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +170,14 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -207,16 +203,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,7 +497,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,41 +583,41 @@
       <c r="C2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s">
-        <v>23</v>
+      <c r="D2" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>21</v>
@@ -626,43 +625,31 @@
       <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
       </c>
       <c r="I5">
         <v>9252594</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>21</v>
@@ -670,44 +657,40 @@
       <c r="C6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>23</v>
+      <c r="D6" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
       </c>
       <c r="I6">
         <v>9252594</v>
       </c>
       <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
         <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{52F9D132-4CBB-4C75-9DDC-57F035840B73}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{B7EF448D-63E8-45DF-8329-66A2AC54BBF7}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{5855B9B2-40EA-4F15-9156-C321B53E10A2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
